--- a/Music/Guitar/Barrish.xlsx
+++ b/Music/Guitar/Barrish.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="21060" windowHeight="10056" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="156" windowWidth="21060" windowHeight="9996" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="PentaChord" sheetId="3" r:id="rId2"/>
     <sheet name="Relate" sheetId="4" r:id="rId3"/>
+    <sheet name="2hand" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="31">
   <si>
     <t>E</t>
   </si>
@@ -93,12 +94,30 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +135,44 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -149,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,11 +258,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -213,6 +329,551 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$A$1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>182880</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Option Button 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Option Button 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>160020</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Option Button 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>160020</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Option Button 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Option Button 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>160020</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Option Button 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Option Button 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Option Button 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Option Button 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Option Button 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Option Button 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Option Button 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1569,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2504,575 +3165,2508 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3" style="8"/>
+    <col min="1" max="1" width="3.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3" style="8" customWidth="1"/>
+    <col min="3" max="12" width="3" style="8"/>
+    <col min="13" max="14" width="3" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="3" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9">
         <v>6</v>
       </c>
-      <c r="D2" s="8">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="I2" s="8">
+        <v>7</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="N2" s="9">
         <v>3</v>
       </c>
-      <c r="J2" s="8">
+      <c r="O2" s="8">
         <v>4</v>
       </c>
-      <c r="L2" s="9">
+      <c r="Q2" s="9">
         <v>5</v>
       </c>
-      <c r="N2" s="9">
+      <c r="S2" s="9">
         <v>6</v>
       </c>
-      <c r="P2" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" s="9">
+      <c r="U2" s="8">
+        <v>7</v>
+      </c>
+      <c r="V2" s="9">
+        <v>1</v>
+      </c>
+      <c r="X2" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="9">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="H3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="9">
+      <c r="J3" s="9">
         <v>5</v>
       </c>
-      <c r="G3" s="9">
+      <c r="L3" s="9">
         <v>6</v>
       </c>
-      <c r="I3" s="8">
-        <v>7</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="N3" s="8">
+        <v>7</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
         <v>2</v>
       </c>
-      <c r="N3" s="9">
+      <c r="S3" s="9">
         <v>3</v>
       </c>
-      <c r="O3" s="8">
+      <c r="T3" s="8">
         <v>4</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="V3" s="9">
         <v>5</v>
       </c>
-      <c r="S3" s="9">
+      <c r="X3" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="K4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="8">
+      <c r="L4" s="8">
         <v>4</v>
       </c>
-      <c r="I4" s="9">
+      <c r="N4" s="9">
         <v>5</v>
       </c>
-      <c r="K4" s="9">
+      <c r="P4" s="9">
         <v>6</v>
       </c>
-      <c r="M4" s="8">
-        <v>7</v>
-      </c>
-      <c r="N4" s="9">
-        <v>1</v>
-      </c>
-      <c r="P4" s="9">
+      <c r="R4" s="8">
+        <v>7</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9">
         <v>2</v>
       </c>
-      <c r="R4" s="9">
+      <c r="W4" s="9">
         <v>3</v>
       </c>
-      <c r="S4" s="8">
+      <c r="X4" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="I5" s="9">
         <v>6</v>
       </c>
-      <c r="F5" s="8">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="K5" s="8">
+        <v>7</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9">
         <v>2</v>
       </c>
-      <c r="K5" s="9">
+      <c r="P5" s="9">
         <v>3</v>
       </c>
-      <c r="L5" s="8">
+      <c r="Q5" s="8">
         <v>4</v>
       </c>
-      <c r="N5" s="9">
+      <c r="S5" s="9">
         <v>5</v>
       </c>
-      <c r="P5" s="9">
+      <c r="U5" s="9">
         <v>6</v>
       </c>
-      <c r="R5" s="8">
-        <v>7</v>
-      </c>
-      <c r="S5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="W5" s="8">
+        <v>7</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="I6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="8">
+      <c r="J6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="9">
+      <c r="L6" s="9">
         <v>5</v>
       </c>
-      <c r="I6" s="9">
+      <c r="N6" s="9">
         <v>6</v>
       </c>
-      <c r="K6" s="8">
-        <v>7</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="N6" s="9">
+      <c r="P6" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9">
         <v>2</v>
       </c>
-      <c r="P6" s="9">
+      <c r="U6" s="9">
         <v>3</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="V6" s="8">
         <v>4</v>
       </c>
-      <c r="S6" s="9">
+      <c r="X6" s="9">
         <v>5</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="W6" s="9"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Z6" s="9"/>
+      <c r="AB6" s="9"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="8">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="I7" s="8">
+        <v>7</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
         <v>2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="J7" s="8">
+      <c r="O7" s="8">
         <v>4</v>
       </c>
-      <c r="L7" s="9">
+      <c r="Q7" s="9">
         <v>5</v>
       </c>
-      <c r="N7" s="9">
+      <c r="S7" s="9">
         <v>6</v>
       </c>
-      <c r="P7" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="S7" s="9">
+      <c r="U7" s="8">
+        <v>7</v>
+      </c>
+      <c r="V7" s="9">
+        <v>1</v>
+      </c>
+      <c r="X7" s="9">
         <v>2</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="X7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AC7" s="9"/>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AE7" s="9"/>
+      <c r="AH7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="W8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="8">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="T9" s="9"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <f>IF(N10&gt;0,N10,"")</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f t="shared" ref="C10:C15" si="0">IF(O10&gt;0,O10,"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" ref="D10:D15" si="1">IF(P10&gt;0,P10,"")</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f t="shared" ref="E10:E15" si="2">IF(Q10&gt;0,Q10,"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F15" si="3">IF(R10&gt;0,R10,"")</f>
         <v>6</v>
       </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8" t="str">
+        <f t="shared" ref="G10:G15" si="4">IF(S10&gt;0,S10,"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" ref="H10:H15" si="5">IF(T10&gt;0,T10,"")</f>
+        <v>7</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" ref="I10:I15" si="6">IF(U10&gt;0,U10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" ref="J10:K15" si="7">IF(V10&gt;0,V10,"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="19">
+        <f>INDEX($B$2:$X$7,1,COLUMN()+$A$1-14)</f>
+        <v>4</v>
+      </c>
+      <c r="O10" s="19">
+        <f t="shared" ref="O10:W10" si="8">INDEX($B$2:$X$7,1,COLUMN()+$A$1-14)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="S10" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="U10" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <f t="shared" ref="B11:B15" si="9">IF(N11&gt;0,N11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L9" s="8">
+      <c r="G11" s="8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="N9" s="8">
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AB9" s="9"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="19">
+        <f>INDEX($B$2:$X$7,2,COLUMN()+$A$1-14)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="19">
+        <f t="shared" ref="O11:W11" si="10">INDEX($B$2:$X$7,2,COLUMN()+$A$1-14)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="E10" s="8">
+      <c r="S11" s="19">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="T11" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="V11" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="19">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8">
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N10" s="8">
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AB10" s="9"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="K12" s="8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="19">
+        <f>INDEX($B$2:$X$7,3,COLUMN()+$A$1-14)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" ref="O12:W12" si="11">INDEX($B$2:$X$7,3,COLUMN()+$A$1-14)</f>
+        <v>6</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="19">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="U12" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="I11" s="8">
+      <c r="W12" s="19">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K11" s="8">
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="N11" s="8">
-        <v>1</v>
-      </c>
-      <c r="U11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AC11" s="9"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="19">
+        <f>INDEX($B$2:$X$7,4,COLUMN()+$A$1-14)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <f t="shared" ref="O13:W13" si="12">INDEX($B$2:$X$7,4,COLUMN()+$A$1-14)</f>
+        <v>3</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="S13" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="U13" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="W13" s="19">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K12" s="8">
+      <c r="G14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N12" s="8">
+      <c r="I14" s="8">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="T12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AC12" s="9"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
+      <c r="N14" s="19">
+        <f>INDEX($B$2:$X$7,5,COLUMN()+$A$1-14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="19">
+        <f t="shared" ref="O14:W14" si="13">INDEX($B$2:$X$7,5,COLUMN()+$A$1-14)</f>
+        <v>7</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="S14" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="19">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="G13" s="8">
+      <c r="U14" s="19">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="19">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="I13" s="8">
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="G15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B14" s="8">
+      <c r="N15" s="19">
+        <f>INDEX($B$2:$X$7,6,COLUMN()+$A$1-14)</f>
+        <v>4</v>
+      </c>
+      <c r="O15" s="19">
+        <f t="shared" ref="O15:W15" si="14">INDEX($B$2:$X$7,6,COLUMN()+$A$1-14)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="S15" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="19">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I14" s="8">
-        <v>3</v>
-      </c>
-      <c r="L14" s="8">
-        <v>5</v>
-      </c>
-      <c r="N14" s="8">
-        <v>6</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="U15" s="9"/>
-      <c r="W15" s="9"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T16" s="9"/>
-      <c r="V16" s="9"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="9"/>
-      <c r="V17" s="9"/>
+      <c r="B17" s="8" t="str">
+        <f>IF(LEN(B10),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="C17" s="8" t="str">
+        <f t="shared" ref="C17:K17" si="15">IF(LEN(C10),"X","")</f>
+        <v/>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="B18" s="8" t="str">
+        <f t="shared" ref="B18:K18" si="16">IF(LEN(B11),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="C18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>X</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>X</v>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>X</v>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>X</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K18" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>X</v>
+      </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
-        <v>1</v>
+      <c r="B19" s="8" t="str">
+        <f t="shared" ref="B19:K19" si="17">IF(LEN(B12),"X","")</f>
+        <v/>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v>X</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v>X</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v>X</v>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v>X</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v>X</v>
+      </c>
+      <c r="K19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v>X</v>
       </c>
       <c r="T19" s="9"/>
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B20" s="8" t="str">
+        <f t="shared" ref="B20:K20" si="18">IF(LEN(B13),"X","")</f>
+        <v/>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>X</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>X</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>X</v>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>X</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>X</v>
+      </c>
+      <c r="K20" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>X</v>
+      </c>
+      <c r="U20" s="9"/>
+      <c r="W20" s="9"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="T27" s="9"/>
-      <c r="W27" s="9"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="U28" s="9"/>
-      <c r="W28" s="9"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="T29" s="9"/>
-      <c r="V29" s="9"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="T30" s="9"/>
-      <c r="V30" s="9"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="T31" s="9"/>
-      <c r="W31" s="9"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="T32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="B21" s="8" t="str">
+        <f t="shared" ref="B21:K21" si="19">IF(LEN(B14),"X","")</f>
+        <v/>
+      </c>
+      <c r="C21" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>X</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>X</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>X</v>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>X</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>X</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K21" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>X</v>
+      </c>
+      <c r="T21" s="9"/>
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="str">
+        <f t="shared" ref="B22:K22" si="20">IF(LEN(B15),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="C22" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>X</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>X</v>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>X</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>X</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="K22" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>X</v>
+      </c>
+      <c r="T22" s="9"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="T23" s="9"/>
+      <c r="W23" s="9"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="T24" s="9"/>
+      <c r="W24" s="9"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B10:K15">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>IF(B10=7,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>IF(B10=6,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>IF(B10=3,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>IF(B10=2,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>IF(B10=1,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>IF(B10=5,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId4" name="Option Button 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>182880</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId5" name="Option Button 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId6" name="Option Button 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId7" name="Option Button 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId8" name="Option Button 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId9" name="Option Button 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId10" name="Option Button 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId11" name="Option Button 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId12" name="Option Button 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId13" name="Option Button 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId14" name="Option Button 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId15" name="Option Button 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="3" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Music/Guitar/Barrish.xlsx
+++ b/Music/Guitar/Barrish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="156" windowWidth="21060" windowHeight="9996" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="216" windowWidth="21060" windowHeight="9936" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="Relate" sheetId="4" r:id="rId3"/>
     <sheet name="2hand" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="34">
   <si>
     <t>E</t>
   </si>
@@ -112,12 +115,21 @@
   <si>
     <t>low</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,16 +188,65 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,11 +263,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +368,60 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3169,7 +3313,7 @@
   <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J15"/>
+      <selection activeCell="B2" sqref="B2:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3484,43 +3628,43 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
-        <f>IF(N10&gt;0,N10,"")</f>
+        <f t="shared" ref="B10:B15" si="0">IF(N10&gt;0,N10,"")</f>
         <v>4</v>
       </c>
       <c r="C10" s="8" t="str">
-        <f t="shared" ref="C10:C15" si="0">IF(O10&gt;0,O10,"")</f>
+        <f t="shared" ref="C10:C15" si="1">IF(O10&gt;0,O10,"")</f>
         <v/>
       </c>
       <c r="D10" s="8">
-        <f t="shared" ref="D10:D15" si="1">IF(P10&gt;0,P10,"")</f>
+        <f t="shared" ref="D10:D15" si="2">IF(P10&gt;0,P10,"")</f>
         <v>5</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f t="shared" ref="E10:E15" si="2">IF(Q10&gt;0,Q10,"")</f>
+        <f t="shared" ref="E10:E15" si="3">IF(Q10&gt;0,Q10,"")</f>
         <v/>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F15" si="3">IF(R10&gt;0,R10,"")</f>
+        <f t="shared" ref="F10:F15" si="4">IF(R10&gt;0,R10,"")</f>
         <v>6</v>
       </c>
       <c r="G10" s="8" t="str">
-        <f t="shared" ref="G10:G15" si="4">IF(S10&gt;0,S10,"")</f>
+        <f t="shared" ref="G10:G15" si="5">IF(S10&gt;0,S10,"")</f>
         <v/>
       </c>
       <c r="H10" s="8">
-        <f t="shared" ref="H10:H15" si="5">IF(T10&gt;0,T10,"")</f>
+        <f t="shared" ref="H10:H15" si="6">IF(T10&gt;0,T10,"")</f>
         <v>7</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" ref="I10:I15" si="6">IF(U10&gt;0,U10,"")</f>
+        <f t="shared" ref="I10:I15" si="7">IF(U10&gt;0,U10,"")</f>
         <v>1</v>
       </c>
       <c r="J10" s="8" t="str">
-        <f t="shared" ref="J10:K15" si="7">IF(V10&gt;0,V10,"")</f>
+        <f t="shared" ref="J10:K15" si="8">IF(V10&gt;0,V10,"")</f>
         <v/>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="L10" s="1"/>
@@ -3530,81 +3674,81 @@
         <v>4</v>
       </c>
       <c r="O10" s="19">
-        <f t="shared" ref="O10:W10" si="8">INDEX($B$2:$X$7,1,COLUMN()+$A$1-14)</f>
+        <f t="shared" ref="O10:W10" si="9">INDEX($B$2:$X$7,1,COLUMN()+$A$1-14)</f>
         <v>0</v>
       </c>
       <c r="P10" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="Q10" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R10" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="S10" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T10" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="U10" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V10" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W10" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
-        <f t="shared" ref="B11:B15" si="9">IF(N11&gt;0,N11,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E11" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H11" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J11" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L11" s="1"/>
@@ -3652,43 +3796,43 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="L12" s="1"/>
@@ -3736,43 +3880,43 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I13" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L13" s="1"/>
@@ -3820,43 +3964,43 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J14" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="N14" s="19">
@@ -3902,43 +4046,43 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G15" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J15" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="N15" s="19">
@@ -4552,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4561,16 +4705,16 @@
     <col min="1" max="16384" width="3" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
         <v>26</v>
       </c>
+      <c r="D1" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="G1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -4579,19 +4723,19 @@
       <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="D2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="21" t="s">
@@ -4611,19 +4755,19 @@
       <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="D3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="21" t="s">
@@ -4643,19 +4787,19 @@
       <c r="C4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="24" t="s">
@@ -4673,19 +4817,19 @@
       <c r="C5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="D5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="24" t="s">
@@ -4705,19 +4849,19 @@
       <c r="C6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -4737,19 +4881,19 @@
       <c r="C7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="21" t="s">
@@ -4783,16 +4927,16 @@
       <c r="D9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="E9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="21" t="s">
@@ -4815,16 +4959,16 @@
       <c r="D10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="E10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -4847,16 +4991,16 @@
       <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21" t="s">
+      <c r="E11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="21" t="s">
@@ -4879,16 +5023,16 @@
       <c r="D12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="21" t="s">
+      <c r="E12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="21" t="s">
@@ -4911,16 +5055,16 @@
       <c r="D13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="24" t="s">
+      <c r="E13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="21" t="s">
@@ -4943,16 +5087,16 @@
       <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="24" t="s">
+      <c r="E14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I14" s="21" t="s">
@@ -5546,128 +5690,3634 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J7"/>
+  <dimension ref="A2:AF42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J7"/>
+      <selection activeCell="B7" sqref="B2:X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="3" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B2" s="39">
+        <v>3</v>
+      </c>
+      <c r="C2" s="33">
+        <v>4</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35">
+        <v>5</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="36">
+        <v>6</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="34">
+        <v>7</v>
+      </c>
+      <c r="J2" s="41">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35">
+        <v>2</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39">
+        <v>3</v>
+      </c>
+      <c r="O2" s="37">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="35">
+        <v>5</v>
+      </c>
+      <c r="S2" s="30">
+        <v>6</v>
+      </c>
+      <c r="T2" s="37"/>
+      <c r="U2" s="34">
+        <v>7</v>
+      </c>
+      <c r="V2" s="40">
+        <v>1</v>
+      </c>
+      <c r="X2" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B3" s="34">
+        <v>7</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="40">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37">
+        <v>4</v>
+      </c>
+      <c r="J3" s="35">
+        <v>5</v>
+      </c>
+      <c r="L3" s="35">
+        <v>6</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="34">
+        <v>7</v>
+      </c>
+      <c r="O3" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="35">
+        <v>2</v>
+      </c>
+      <c r="R3" s="34"/>
+      <c r="S3" s="40">
+        <v>3</v>
+      </c>
+      <c r="T3" s="37">
+        <v>4</v>
+      </c>
+      <c r="U3" s="34"/>
+      <c r="V3" s="35">
+        <v>5</v>
+      </c>
+      <c r="X3" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B4" s="39">
+        <v>5</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="32">
+        <v>6</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="34">
+        <v>7</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="30">
+        <v>2</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="40">
+        <v>3</v>
+      </c>
+      <c r="L4" s="37">
+        <v>4</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39">
+        <v>5</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="30">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="34">
+        <v>7</v>
+      </c>
+      <c r="S4" s="40">
+        <v>1</v>
+      </c>
+      <c r="T4" s="37"/>
+      <c r="U4" s="32">
+        <v>2</v>
+      </c>
+      <c r="V4" s="37"/>
+      <c r="W4" s="39">
+        <v>3</v>
+      </c>
+      <c r="X4" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B5" s="32">
+        <v>2</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="39">
+        <v>3</v>
+      </c>
+      <c r="E5" s="37">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="40">
+        <v>5</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="30">
+        <v>6</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="34">
+        <v>7</v>
+      </c>
+      <c r="L5" s="40">
+        <v>1</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="30">
+        <v>2</v>
+      </c>
+      <c r="O5" s="37"/>
+      <c r="P5" s="39">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>4</v>
+      </c>
+      <c r="R5" s="34"/>
+      <c r="S5" s="40">
+        <v>5</v>
+      </c>
+      <c r="T5" s="37"/>
+      <c r="U5" s="32">
+        <v>6</v>
+      </c>
+      <c r="V5" s="37"/>
+      <c r="W5" s="34">
+        <v>7</v>
+      </c>
+      <c r="X5" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B6" s="32">
+        <v>6</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34">
+        <v>7</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="36">
+        <v>2</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="39">
+        <v>3</v>
+      </c>
+      <c r="J6" s="37">
+        <v>4</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="40">
+        <v>5</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="30">
+        <v>6</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="34">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>1</v>
+      </c>
+      <c r="R6" s="34"/>
+      <c r="S6" s="30">
+        <v>2</v>
+      </c>
+      <c r="T6" s="37"/>
+      <c r="U6" s="39">
+        <v>3</v>
+      </c>
+      <c r="V6" s="37">
+        <v>4</v>
+      </c>
+      <c r="W6" s="34"/>
+      <c r="X6" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B7" s="32">
+        <v>3</v>
+      </c>
+      <c r="C7" s="33">
+        <v>4</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35">
+        <v>5</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36">
+        <v>6</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="34">
+        <v>7</v>
+      </c>
+      <c r="J7" s="41">
+        <v>1</v>
+      </c>
+      <c r="L7" s="35">
+        <v>2</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="30">
+        <v>3</v>
+      </c>
+      <c r="O7" s="37">
+        <v>4</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35">
+        <v>5</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="30">
+        <v>6</v>
+      </c>
+      <c r="T7" s="37"/>
+      <c r="U7" s="34">
+        <v>7</v>
+      </c>
+      <c r="V7" s="41">
+        <v>1</v>
+      </c>
+      <c r="W7" s="34"/>
+      <c r="X7" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="33"/>
+      <c r="S9" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="33"/>
+      <c r="X9" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" s="33"/>
+      <c r="V10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="33"/>
+      <c r="X10" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="33"/>
+      <c r="P11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="33"/>
+      <c r="U11" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="33"/>
+      <c r="W11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="33"/>
+      <c r="P12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="33"/>
+      <c r="S12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="33"/>
+      <c r="U12" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="33"/>
+      <c r="S13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="33"/>
+      <c r="U13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="33"/>
+      <c r="X13" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="33"/>
+      <c r="S14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="33"/>
+      <c r="X14" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="33"/>
+      <c r="P16" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="33"/>
+      <c r="U16" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="33"/>
+      <c r="S17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="33"/>
+      <c r="W17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="33"/>
+      <c r="V18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" s="33"/>
+      <c r="X18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF18" s="33"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="33"/>
+      <c r="V19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="33"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B20" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="33"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="33"/>
+      <c r="P23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B24" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="33"/>
+      <c r="S24" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="33"/>
+      <c r="W24" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B25" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="H25" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="33"/>
+      <c r="V25" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="33"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="33"/>
+      <c r="P26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="33"/>
+      <c r="V26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="33"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="33"/>
+      <c r="P27" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF27" s="33"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="33"/>
+      <c r="P28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="33"/>
+      <c r="P30" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B31" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="33"/>
+      <c r="S31" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="33"/>
+      <c r="W31" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF31" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B32" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="H32" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="33"/>
+      <c r="V32" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" s="33"/>
+      <c r="X32" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF32" s="33"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="33"/>
+      <c r="P33" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="33"/>
+      <c r="V33" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" s="33"/>
+      <c r="X33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y33" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF33" s="33"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="33"/>
+      <c r="P34" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="33"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="33"/>
+      <c r="P35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="I38" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" s="33"/>
+      <c r="R38" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="N40" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="33"/>
+      <c r="R40" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="S40" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="I42" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="N42" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="33"/>
+      <c r="R42" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="3" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="42">
+        <v>3</v>
+      </c>
+      <c r="C1" s="42">
+        <v>4</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42">
+        <v>5</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42">
+        <v>6</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42">
+        <v>7</v>
+      </c>
+      <c r="J1" s="42">
+        <v>1</v>
+      </c>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42">
+        <v>2</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42">
+        <v>3</v>
+      </c>
+      <c r="O1" s="42">
+        <v>4</v>
+      </c>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42">
+        <v>5</v>
+      </c>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42">
+        <v>6</v>
+      </c>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42">
+        <v>7</v>
+      </c>
+      <c r="V1" s="42">
+        <v>1</v>
+      </c>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="42">
+        <v>7</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42">
+        <v>3</v>
+      </c>
+      <c r="H2" s="40">
+        <v>4</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="40">
+        <v>5</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
+        <v>6</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42">
+        <v>7</v>
+      </c>
+      <c r="O2" s="40">
+        <v>1</v>
+      </c>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42">
+        <v>2</v>
+      </c>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42">
+        <v>3</v>
+      </c>
+      <c r="T2" s="40">
+        <v>4</v>
+      </c>
+      <c r="U2" s="42"/>
+      <c r="V2" s="40">
+        <v>5</v>
+      </c>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="42">
+        <v>5</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42">
+        <v>6</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42">
+        <v>7</v>
+      </c>
+      <c r="G3" s="42">
+        <v>1</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42">
+        <v>2</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42">
+        <v>3</v>
+      </c>
+      <c r="L3" s="42">
+        <v>4</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42">
+        <v>5</v>
+      </c>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42">
+        <v>7</v>
+      </c>
+      <c r="S3" s="42">
+        <v>1</v>
+      </c>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42">
+        <v>2</v>
+      </c>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42">
+        <v>3</v>
+      </c>
+      <c r="X3" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="42">
+        <v>2</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="40">
+        <v>3</v>
+      </c>
+      <c r="E4" s="42">
+        <v>4</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42">
+        <v>5</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="40">
+        <v>6</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="40">
+        <v>7</v>
+      </c>
+      <c r="L4" s="42">
+        <v>1</v>
+      </c>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42">
+        <v>2</v>
+      </c>
+      <c r="O4" s="42"/>
+      <c r="P4" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="42">
+        <v>4</v>
+      </c>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42">
+        <v>5</v>
+      </c>
+      <c r="T4" s="42"/>
+      <c r="U4" s="40">
+        <v>6</v>
+      </c>
+      <c r="V4" s="42"/>
+      <c r="W4" s="40">
+        <v>7</v>
+      </c>
+      <c r="X4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="42">
+        <v>6</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42">
+        <v>7</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42">
+        <v>2</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42">
+        <v>3</v>
+      </c>
+      <c r="J5" s="40">
+        <v>4</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="40">
+        <v>5</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42">
+        <v>6</v>
+      </c>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>1</v>
+      </c>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42">
+        <v>2</v>
+      </c>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42">
+        <v>3</v>
+      </c>
+      <c r="V5" s="40">
+        <v>4</v>
+      </c>
+      <c r="W5" s="42"/>
+      <c r="X5" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="42">
+        <v>3</v>
+      </c>
+      <c r="C6" s="42">
+        <v>4</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42">
+        <v>5</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42">
+        <v>6</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42">
+        <v>7</v>
+      </c>
+      <c r="J6" s="42">
+        <v>1</v>
+      </c>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42">
+        <v>2</v>
+      </c>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42">
+        <v>3</v>
+      </c>
+      <c r="O6" s="42">
+        <v>4</v>
+      </c>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42">
+        <v>5</v>
+      </c>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42">
+        <v>6</v>
+      </c>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42">
+        <v>7</v>
+      </c>
+      <c r="V6" s="42">
+        <v>1</v>
+      </c>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="42">
+        <v>3</v>
+      </c>
+      <c r="C8" s="42">
+        <v>4</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42">
+        <v>5</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42">
+        <v>6</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42">
+        <v>7</v>
+      </c>
+      <c r="J8" s="42">
+        <v>1</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42">
+        <v>2</v>
+      </c>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42">
+        <v>3</v>
+      </c>
+      <c r="O8" s="42">
+        <v>4</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42">
+        <v>5</v>
+      </c>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42">
+        <v>6</v>
+      </c>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42">
+        <v>7</v>
+      </c>
+      <c r="V8" s="42">
+        <v>1</v>
+      </c>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="42">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42">
+        <v>1</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42">
+        <v>2</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42">
+        <v>3</v>
+      </c>
+      <c r="H9" s="42">
+        <v>4</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42">
+        <v>5</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42">
+        <v>6</v>
+      </c>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42">
+        <v>7</v>
+      </c>
+      <c r="O9" s="42">
+        <v>1</v>
+      </c>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42">
+        <v>2</v>
+      </c>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42">
+        <v>3</v>
+      </c>
+      <c r="T9" s="42">
+        <v>4</v>
+      </c>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42">
+        <v>5</v>
+      </c>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="42">
+        <v>5</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="40">
+        <v>6</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="40">
+        <v>7</v>
+      </c>
+      <c r="G10" s="42">
+        <v>1</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42">
+        <v>2</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="40">
+        <v>3</v>
+      </c>
+      <c r="L10" s="42">
+        <v>4</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42">
+        <v>5</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="40">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="40">
+        <v>7</v>
+      </c>
+      <c r="S10" s="42">
+        <v>1</v>
+      </c>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42">
+        <v>2</v>
+      </c>
+      <c r="V10" s="42"/>
+      <c r="W10" s="40">
+        <v>3</v>
+      </c>
+      <c r="X10" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="42">
+        <v>2</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42">
+        <v>3</v>
+      </c>
+      <c r="E11" s="40">
+        <v>4</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="40">
+        <v>5</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42">
+        <v>6</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
+        <v>7</v>
+      </c>
+      <c r="L11" s="40">
+        <v>1</v>
+      </c>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42">
+        <v>2</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>4</v>
+      </c>
+      <c r="R11" s="42"/>
+      <c r="S11" s="40">
+        <v>5</v>
+      </c>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42">
+        <v>6</v>
+      </c>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42">
+        <v>7</v>
+      </c>
+      <c r="X11" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="42">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42">
+        <v>7</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40">
+        <v>2</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42">
+        <v>3</v>
+      </c>
+      <c r="J12" s="42">
+        <v>4</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="40">
+        <v>5</v>
+      </c>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42">
+        <v>6</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>1</v>
+      </c>
+      <c r="R12" s="42"/>
+      <c r="S12" s="40">
+        <v>2</v>
+      </c>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42">
+        <v>3</v>
+      </c>
+      <c r="V12" s="42">
+        <v>4</v>
+      </c>
+      <c r="W12" s="42"/>
+      <c r="X12" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="42">
+        <v>3</v>
+      </c>
+      <c r="C13" s="42">
+        <v>4</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42">
+        <v>5</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42">
+        <v>6</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42">
+        <v>7</v>
+      </c>
+      <c r="J13" s="42">
+        <v>1</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42">
+        <v>2</v>
+      </c>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42">
+        <v>3</v>
+      </c>
+      <c r="O13" s="42">
+        <v>4</v>
+      </c>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42">
+        <v>5</v>
+      </c>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42">
+        <v>6</v>
+      </c>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42">
+        <v>7</v>
+      </c>
+      <c r="V13" s="42">
+        <v>1</v>
+      </c>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="40">
+        <v>3</v>
+      </c>
+      <c r="C15" s="42">
+        <v>4</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42">
+        <v>5</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="40">
+        <v>6</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40">
+        <v>7</v>
+      </c>
+      <c r="J15" s="42">
+        <v>1</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42">
+        <v>2</v>
+      </c>
+      <c r="M15" s="42"/>
+      <c r="N15" s="40">
+        <v>3</v>
+      </c>
+      <c r="O15" s="42">
+        <v>4</v>
+      </c>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42">
+        <v>5</v>
+      </c>
+      <c r="R15" s="42"/>
+      <c r="S15" s="40">
+        <v>6</v>
+      </c>
+      <c r="T15" s="42"/>
+      <c r="U15" s="40">
+        <v>7</v>
+      </c>
+      <c r="V15" s="42">
+        <v>1</v>
+      </c>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="42">
+        <v>7</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42">
+        <v>2</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42">
+        <v>3</v>
+      </c>
+      <c r="H16" s="40">
+        <v>4</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="40">
+        <v>5</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42">
+        <v>6</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42">
+        <v>7</v>
+      </c>
+      <c r="O16" s="40">
+        <v>1</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42">
+        <v>2</v>
+      </c>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42">
+        <v>3</v>
+      </c>
+      <c r="T16" s="40">
+        <v>4</v>
+      </c>
+      <c r="U16" s="42"/>
+      <c r="V16" s="40">
+        <v>5</v>
+      </c>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B17" s="40">
+        <v>5</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42">
+        <v>6</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42">
+        <v>7</v>
+      </c>
+      <c r="G17" s="40">
+        <v>1</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40">
+        <v>2</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42">
+        <v>3</v>
+      </c>
+      <c r="L17" s="42">
+        <v>4</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="40">
+        <v>5</v>
+      </c>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42">
+        <v>7</v>
+      </c>
+      <c r="S17" s="40">
+        <v>1</v>
+      </c>
+      <c r="T17" s="42"/>
+      <c r="U17" s="40">
+        <v>2</v>
+      </c>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42">
+        <v>3</v>
+      </c>
+      <c r="X17" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B18" s="42">
+        <v>2</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42">
+        <v>3</v>
+      </c>
+      <c r="E18" s="42">
+        <v>4</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42">
+        <v>5</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42">
+        <v>6</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42">
+        <v>7</v>
+      </c>
+      <c r="L18" s="42">
+        <v>1</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42">
+        <v>2</v>
+      </c>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>4</v>
+      </c>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42">
+        <v>5</v>
+      </c>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42">
+        <v>6</v>
+      </c>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42">
+        <v>7</v>
+      </c>
+      <c r="X18" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B19" s="42">
+        <v>6</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42">
+        <v>7</v>
+      </c>
+      <c r="E19" s="42">
+        <v>1</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42">
+        <v>2</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42">
+        <v>3</v>
+      </c>
+      <c r="J19" s="42">
+        <v>4</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42">
+        <v>5</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42">
+        <v>6</v>
+      </c>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>1</v>
+      </c>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42">
+        <v>2</v>
+      </c>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42">
+        <v>3</v>
+      </c>
+      <c r="V19" s="42">
+        <v>4</v>
+      </c>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B20" s="42">
+        <v>3</v>
+      </c>
+      <c r="C20" s="42">
+        <v>4</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42">
+        <v>5</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42">
+        <v>6</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42">
+        <v>7</v>
+      </c>
+      <c r="J20" s="42">
+        <v>1</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42">
+        <v>2</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42">
+        <v>3</v>
+      </c>
+      <c r="O20" s="42">
+        <v>4</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42">
+        <v>5</v>
+      </c>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42">
+        <v>6</v>
+      </c>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42">
+        <v>7</v>
+      </c>
+      <c r="V20" s="42">
+        <v>1</v>
+      </c>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="42">
+        <v>3</v>
+      </c>
+      <c r="C22" s="42">
+        <v>4</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42">
+        <v>5</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42">
+        <v>6</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42">
+        <v>7</v>
+      </c>
+      <c r="J22" s="42">
+        <v>1</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42">
+        <v>2</v>
+      </c>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42">
+        <v>3</v>
+      </c>
+      <c r="O22" s="42">
+        <v>4</v>
+      </c>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42">
+        <v>5</v>
+      </c>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42">
+        <v>6</v>
+      </c>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42">
+        <v>7</v>
+      </c>
+      <c r="V22" s="42">
+        <v>1</v>
+      </c>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="40">
+        <v>7</v>
+      </c>
+      <c r="C23" s="42">
+        <v>1</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42">
+        <v>2</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="40">
+        <v>3</v>
+      </c>
+      <c r="H23" s="42">
+        <v>4</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42">
+        <v>5</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="40">
+        <v>6</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="40">
+        <v>7</v>
+      </c>
+      <c r="O23" s="42">
+        <v>1</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42">
+        <v>2</v>
+      </c>
+      <c r="R23" s="42"/>
+      <c r="S23" s="40">
+        <v>3</v>
+      </c>
+      <c r="T23" s="42">
+        <v>4</v>
+      </c>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42">
+        <v>5</v>
+      </c>
+      <c r="W23" s="42"/>
+      <c r="X23" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="40">
+        <v>5</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42">
+        <v>6</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42">
+        <v>7</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42">
+        <v>2</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42">
+        <v>3</v>
+      </c>
+      <c r="L24" s="40">
+        <v>4</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="40">
+        <v>5</v>
+      </c>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42">
+        <v>7</v>
+      </c>
+      <c r="S24" s="40">
+        <v>1</v>
+      </c>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42">
+        <v>2</v>
+      </c>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42">
+        <v>3</v>
+      </c>
+      <c r="X24" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="40">
+        <v>2</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42">
+        <v>3</v>
+      </c>
+      <c r="E25" s="42">
+        <v>4</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="40">
+        <v>5</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42">
+        <v>6</v>
+      </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42">
+        <v>7</v>
+      </c>
+      <c r="L25" s="40">
+        <v>1</v>
+      </c>
+      <c r="M25" s="42"/>
+      <c r="N25" s="40">
+        <v>2</v>
+      </c>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="42">
+        <v>4</v>
+      </c>
+      <c r="R25" s="42"/>
+      <c r="S25" s="40">
+        <v>5</v>
+      </c>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42">
+        <v>6</v>
+      </c>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42">
+        <v>7</v>
+      </c>
+      <c r="X25" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="42">
+        <v>6</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42">
+        <v>7</v>
+      </c>
+      <c r="E26" s="42">
+        <v>1</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42">
+        <v>2</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42">
+        <v>3</v>
+      </c>
+      <c r="J26" s="42">
+        <v>4</v>
+      </c>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42">
+        <v>5</v>
+      </c>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42">
+        <v>6</v>
+      </c>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="42">
+        <v>1</v>
+      </c>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42">
+        <v>2</v>
+      </c>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42">
+        <v>3</v>
+      </c>
+      <c r="V26" s="42">
+        <v>4</v>
+      </c>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B27" s="42">
+        <v>3</v>
+      </c>
+      <c r="C27" s="42">
+        <v>4</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42">
+        <v>5</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42">
+        <v>6</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42">
+        <v>7</v>
+      </c>
+      <c r="J27" s="42">
+        <v>1</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42">
+        <v>2</v>
+      </c>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42">
+        <v>3</v>
+      </c>
+      <c r="O27" s="42">
+        <v>4</v>
+      </c>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42">
+        <v>5</v>
+      </c>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42">
+        <v>6</v>
+      </c>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42">
+        <v>7</v>
+      </c>
+      <c r="V27" s="42">
+        <v>1</v>
+      </c>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="42">
+        <v>3</v>
+      </c>
+      <c r="C29" s="40">
+        <v>4</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="40">
+        <v>5</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42">
+        <v>6</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42">
+        <v>7</v>
+      </c>
+      <c r="J29" s="40">
+        <v>1</v>
+      </c>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42">
+        <v>2</v>
+      </c>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42">
+        <v>3</v>
+      </c>
+      <c r="O29" s="40">
+        <v>4</v>
+      </c>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="40">
+        <v>5</v>
+      </c>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42">
+        <v>6</v>
+      </c>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42">
+        <v>7</v>
+      </c>
+      <c r="V29" s="40">
+        <v>1</v>
+      </c>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B30" s="42">
+        <v>7</v>
+      </c>
+      <c r="C30" s="42">
+        <v>1</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42">
+        <v>2</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42">
+        <v>3</v>
+      </c>
+      <c r="H30" s="42">
+        <v>4</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42">
+        <v>5</v>
+      </c>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42">
+        <v>6</v>
+      </c>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42">
+        <v>7</v>
+      </c>
+      <c r="O30" s="42">
+        <v>1</v>
+      </c>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42">
+        <v>2</v>
+      </c>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42">
+        <v>3</v>
+      </c>
+      <c r="T30" s="42">
+        <v>4</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42">
+        <v>5</v>
+      </c>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B31" s="42">
+        <v>5</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42">
+        <v>6</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42">
+        <v>7</v>
+      </c>
+      <c r="G31" s="42">
+        <v>1</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42">
+        <v>2</v>
+      </c>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42">
+        <v>3</v>
+      </c>
+      <c r="L31" s="42">
+        <v>4</v>
+      </c>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42">
+        <v>5</v>
+      </c>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42">
+        <v>7</v>
+      </c>
+      <c r="S31" s="42">
+        <v>1</v>
+      </c>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42">
+        <v>2</v>
+      </c>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42">
+        <v>3</v>
+      </c>
+      <c r="X31" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="42">
+        <v>2</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42">
+        <v>3</v>
+      </c>
+      <c r="E32" s="42">
+        <v>4</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42">
+        <v>5</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42">
+        <v>6</v>
+      </c>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42">
+        <v>7</v>
+      </c>
+      <c r="L32" s="42">
+        <v>1</v>
+      </c>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42">
+        <v>2</v>
+      </c>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="42">
+        <v>4</v>
+      </c>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42">
+        <v>5</v>
+      </c>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42">
+        <v>6</v>
+      </c>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42">
+        <v>7</v>
+      </c>
+      <c r="X32" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="40">
+        <v>6</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="40">
+        <v>7</v>
+      </c>
+      <c r="E33" s="42">
+        <v>1</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42">
+        <v>2</v>
+      </c>
+      <c r="H33" s="42"/>
+      <c r="I33" s="40">
+        <v>3</v>
+      </c>
+      <c r="J33" s="42">
+        <v>4</v>
+      </c>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42">
+        <v>5</v>
+      </c>
+      <c r="M33" s="42"/>
+      <c r="N33" s="40">
+        <v>6</v>
+      </c>
+      <c r="O33" s="42"/>
+      <c r="P33" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="42">
+        <v>1</v>
+      </c>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42">
+        <v>2</v>
+      </c>
+      <c r="T33" s="42"/>
+      <c r="U33" s="40">
+        <v>3</v>
+      </c>
+      <c r="V33" s="42">
+        <v>4</v>
+      </c>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="42">
+        <v>3</v>
+      </c>
+      <c r="C34" s="40">
+        <v>4</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="40">
+        <v>5</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42">
+        <v>6</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42">
+        <v>7</v>
+      </c>
+      <c r="J34" s="40">
+        <v>1</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42">
+        <v>2</v>
+      </c>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42">
+        <v>3</v>
+      </c>
+      <c r="O34" s="40">
+        <v>4</v>
+      </c>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="40">
+        <v>5</v>
+      </c>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42">
+        <v>6</v>
+      </c>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42">
+        <v>7</v>
+      </c>
+      <c r="V34" s="40">
+        <v>1</v>
+      </c>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="1" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C2" s="31">
+        <v>4</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="31">
+        <v>7</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="31">
+        <v>4</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="31">
+        <v>7</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="31">
+        <v>2</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="31">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="31">
+        <v>4</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="31">
+        <v>7</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="31">
+        <v>2</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="31">
+        <v>4</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Music/Guitar/Barrish.xlsx
+++ b/Music/Guitar/Barrish.xlsx
@@ -4,24 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="216" windowWidth="21060" windowHeight="9936" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="276" windowWidth="21060" windowHeight="9876" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="PentaChord" sheetId="3" r:id="rId2"/>
     <sheet name="Relate" sheetId="4" r:id="rId3"/>
     <sheet name="2hand" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="2handPent" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="35">
   <si>
     <t>E</t>
   </si>
@@ -123,6 +122,9 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>~ same chords, different voicings</t>
   </si>
 </sst>
 </file>
@@ -4697,7 +4699,7 @@
   <dimension ref="B1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4707,45 +4709,45 @@
   <sheetData>
     <row r="1" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="29" t="s">
+      <c r="D2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
@@ -4755,87 +4757,89 @@
       <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>7</v>
+      <c r="D3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>25</v>
+      <c r="J3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="B5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="21" t="s">
@@ -4843,32 +4847,32 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>25</v>
+      <c r="B6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>25</v>
@@ -4876,46 +4880,46 @@
     </row>
     <row r="7" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
         <v>28</v>
       </c>
+      <c r="E8" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
@@ -5109,22 +5113,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -5136,39 +5140,39 @@
       <c r="F16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>25</v>
+      <c r="G16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>1</v>
       </c>
       <c r="I17" s="21" t="s">
@@ -5185,14 +5189,14 @@
       <c r="C18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>25</v>
+      <c r="D18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>1</v>
@@ -5201,10 +5205,10 @@
         <v>25</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
@@ -5212,13 +5216,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>25</v>
@@ -5229,25 +5233,25 @@
       <c r="H19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>25</v>
+      <c r="I19" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>25</v>
+      <c r="B20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>1</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>25</v>
@@ -5256,20 +5260,20 @@
         <v>1</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="22" t="s">
@@ -5281,50 +5285,50 @@
       <c r="F21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>25</v>
+      <c r="G21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="21" t="s">
+      <c r="D23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="29" t="s">
         <v>1</v>
       </c>
       <c r="I23" s="21" t="s">
@@ -5332,6 +5336,9 @@
       </c>
       <c r="J23" s="24" t="s">
         <v>1</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
@@ -5341,26 +5348,29 @@
       <c r="C24" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>1</v>
+      <c r="D24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>1</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
@@ -5370,106 +5380,113 @@
       <c r="C25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="D25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>1</v>
+      <c r="B27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>7</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B28" s="22" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="24" t="s">
+      <c r="D28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="29" t="s">
         <v>1</v>
       </c>
       <c r="I28" s="21" t="s">
@@ -5478,208 +5495,193 @@
       <c r="J28" s="24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>1</v>
+      <c r="E30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>7</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>1</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>7</v>
+      <c r="J31" s="24" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>25</v>
+      <c r="B32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>1</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B35" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="23" t="s">
+      <c r="F34" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>1</v>
+      <c r="E35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5690,10 +5692,912 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="3" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B2:X7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7493,7 +8397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X34"/>
   <sheetViews>
@@ -9190,135 +10094,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C2" s="31">
-        <v>4</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="31">
-        <v>7</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="31">
-        <v>2</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="31">
-        <v>4</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="31">
-        <v>7</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="31">
-        <v>2</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="31">
-        <v>2</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="31">
-        <v>4</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="31">
-        <v>7</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="31">
-        <v>2</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="31">
-        <v>4</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Music/Guitar/Barrish.xlsx
+++ b/Music/Guitar/Barrish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="276" windowWidth="21060" windowHeight="9876" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="276" windowWidth="21060" windowHeight="9876" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="2hand" sheetId="5" r:id="rId4"/>
     <sheet name="2handPent" sheetId="9" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
+    <sheet name="Forms" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="49">
   <si>
     <t>E</t>
   </si>
@@ -126,12 +127,54 @@
   <si>
     <t>~ same chords, different voicings</t>
   </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Slash (0)</t>
+  </si>
+  <si>
+    <t>Dm</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>bx</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>vrt</t>
+  </si>
+  <si>
+    <t>Diminished</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +276,52 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +331,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFECF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,6 +536,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,6 +643,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFECF4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6597,7 +6776,7 @@
   <dimension ref="A2:AF42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8399,10 +8578,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8410,7 +8589,7 @@
     <col min="1" max="16384" width="3" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
@@ -8466,7 +8645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2" s="42">
         <v>7</v>
       </c>
@@ -8519,7 +8698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B3" s="42">
         <v>5</v>
       </c>
@@ -8572,7 +8751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B4" s="42">
         <v>2</v>
       </c>
@@ -8625,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="42">
         <v>6</v>
       </c>
@@ -8678,7 +8857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="42">
         <v>3</v>
       </c>
@@ -8731,357 +8910,335 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="42">
-        <v>3</v>
-      </c>
-      <c r="C8" s="42">
-        <v>4</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42">
-        <v>5</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42">
-        <v>6</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42">
-        <v>7</v>
-      </c>
-      <c r="J8" s="42">
-        <v>1</v>
-      </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42">
-        <v>2</v>
-      </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42">
-        <v>3</v>
-      </c>
-      <c r="O8" s="42">
-        <v>4</v>
-      </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42">
-        <v>5</v>
-      </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42">
-        <v>6</v>
-      </c>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42">
-        <v>7</v>
-      </c>
-      <c r="V8" s="42">
-        <v>1</v>
-      </c>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="42">
-        <v>7</v>
-      </c>
-      <c r="C9" s="42">
-        <v>1</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42">
-        <v>2</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42">
-        <v>3</v>
-      </c>
-      <c r="H9" s="42">
-        <v>4</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42">
-        <v>5</v>
-      </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42">
-        <v>6</v>
-      </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42">
-        <v>7</v>
-      </c>
-      <c r="O9" s="42">
-        <v>1</v>
-      </c>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42">
-        <v>2</v>
-      </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42">
-        <v>3</v>
-      </c>
-      <c r="T9" s="42">
-        <v>4</v>
-      </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42">
-        <v>5</v>
-      </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="42">
-        <v>5</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="40">
-        <v>6</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="40">
-        <v>7</v>
-      </c>
-      <c r="G10" s="42">
-        <v>1</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42">
-        <v>2</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="40">
-        <v>3</v>
-      </c>
-      <c r="L10" s="42">
-        <v>4</v>
-      </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42">
-        <v>5</v>
-      </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="40">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="40">
-        <v>7</v>
-      </c>
-      <c r="S10" s="42">
-        <v>1</v>
-      </c>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42">
-        <v>2</v>
-      </c>
-      <c r="V10" s="42"/>
-      <c r="W10" s="40">
-        <v>3</v>
-      </c>
-      <c r="X10" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="42">
-        <v>2</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42">
-        <v>3</v>
-      </c>
-      <c r="E11" s="40">
-        <v>4</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="40">
-        <v>5</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42">
-        <v>6</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42">
-        <v>7</v>
-      </c>
-      <c r="L11" s="40">
-        <v>1</v>
-      </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42">
-        <v>2</v>
-      </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="40">
-        <v>4</v>
-      </c>
-      <c r="R11" s="42"/>
-      <c r="S11" s="40">
-        <v>5</v>
-      </c>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42">
-        <v>6</v>
-      </c>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42">
-        <v>7</v>
-      </c>
-      <c r="X11" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="42">
-        <v>6</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42">
-        <v>7</v>
-      </c>
-      <c r="E12" s="40">
-        <v>1</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40">
-        <v>2</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42">
-        <v>3</v>
-      </c>
-      <c r="J12" s="42">
-        <v>4</v>
-      </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="40">
-        <v>5</v>
-      </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42">
-        <v>6</v>
-      </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="40">
-        <v>1</v>
-      </c>
-      <c r="R12" s="42"/>
-      <c r="S12" s="40">
-        <v>2</v>
-      </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42">
-        <v>3</v>
-      </c>
-      <c r="V12" s="42">
-        <v>4</v>
-      </c>
-      <c r="W12" s="42"/>
-      <c r="X12" s="40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="42">
-        <v>3</v>
-      </c>
-      <c r="C13" s="42">
-        <v>4</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42">
-        <v>5</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42">
-        <v>6</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42">
-        <v>7</v>
-      </c>
-      <c r="J13" s="42">
-        <v>1</v>
-      </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42">
-        <v>2</v>
-      </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42">
-        <v>3</v>
-      </c>
-      <c r="O13" s="42">
-        <v>4</v>
-      </c>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42">
-        <v>5</v>
-      </c>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42">
-        <v>6</v>
-      </c>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42">
-        <v>7</v>
-      </c>
-      <c r="V13" s="42">
-        <v>1</v>
-      </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="46">
+        <v>3</v>
+      </c>
+      <c r="C8" s="46">
+        <v>4</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46">
+        <v>5</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46">
+        <v>6</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46">
+        <v>7</v>
+      </c>
+      <c r="J8" s="46">
+        <v>1</v>
+      </c>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46">
+        <v>2</v>
+      </c>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46">
+        <v>3</v>
+      </c>
+      <c r="O8" s="46">
+        <v>4</v>
+      </c>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46">
+        <v>5</v>
+      </c>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46">
+        <v>6</v>
+      </c>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46">
+        <v>7</v>
+      </c>
+      <c r="V8" s="46">
+        <v>1</v>
+      </c>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46">
+        <v>7</v>
+      </c>
+      <c r="C9" s="46">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46">
+        <v>2</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46">
+        <v>3</v>
+      </c>
+      <c r="H9" s="46">
+        <v>4</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46">
+        <v>5</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46">
+        <v>6</v>
+      </c>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46">
+        <v>7</v>
+      </c>
+      <c r="O9" s="46">
+        <v>1</v>
+      </c>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46">
+        <v>2</v>
+      </c>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46">
+        <v>3</v>
+      </c>
+      <c r="T9" s="46">
+        <v>4</v>
+      </c>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46">
+        <v>5</v>
+      </c>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="49">
+        <v>5</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46">
+        <v>6</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46">
+        <v>7</v>
+      </c>
+      <c r="G10" s="49">
+        <v>1</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46">
+        <v>2</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46">
+        <v>3</v>
+      </c>
+      <c r="L10" s="49">
+        <v>4</v>
+      </c>
+      <c r="M10" s="46"/>
+      <c r="N10" s="49">
+        <v>5</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46">
+        <v>7</v>
+      </c>
+      <c r="S10" s="49">
+        <v>1</v>
+      </c>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46">
+        <v>2</v>
+      </c>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46">
+        <v>3</v>
+      </c>
+      <c r="X10" s="46">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="48"/>
+    </row>
+    <row r="11" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="46">
+        <v>2</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="49">
+        <v>3</v>
+      </c>
+      <c r="E11" s="46">
+        <v>4</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46">
+        <v>5</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="49">
+        <v>6</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46">
+        <v>7</v>
+      </c>
+      <c r="L11" s="46">
+        <v>1</v>
+      </c>
+      <c r="M11" s="46"/>
+      <c r="N11" s="49">
+        <v>2</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="49">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>4</v>
+      </c>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46">
+        <v>5</v>
+      </c>
+      <c r="T11" s="46"/>
+      <c r="U11" s="49">
+        <v>6</v>
+      </c>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46">
+        <v>7</v>
+      </c>
+      <c r="X11" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="48"/>
+    </row>
+    <row r="12" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46">
+        <v>6</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="49">
+        <v>7</v>
+      </c>
+      <c r="E12" s="46">
+        <v>1</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46">
+        <v>2</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="49">
+        <v>3</v>
+      </c>
+      <c r="J12" s="46">
+        <v>4</v>
+      </c>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46">
+        <v>5</v>
+      </c>
+      <c r="M12" s="46"/>
+      <c r="N12" s="49">
+        <v>6</v>
+      </c>
+      <c r="O12" s="46"/>
+      <c r="P12" s="49">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>1</v>
+      </c>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46">
+        <v>2</v>
+      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="49">
+        <v>3</v>
+      </c>
+      <c r="V12" s="46">
+        <v>4</v>
+      </c>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="48"/>
+    </row>
+    <row r="13" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="46">
+        <v>3</v>
+      </c>
+      <c r="C13" s="46">
+        <v>4</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46">
+        <v>5</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46">
+        <v>6</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46">
+        <v>7</v>
+      </c>
+      <c r="J13" s="46">
+        <v>1</v>
+      </c>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46">
+        <v>2</v>
+      </c>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46">
+        <v>3</v>
+      </c>
+      <c r="O13" s="46">
+        <v>4</v>
+      </c>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46">
+        <v>5</v>
+      </c>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46">
+        <v>6</v>
+      </c>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46">
+        <v>7</v>
+      </c>
+      <c r="V13" s="46">
+        <v>1</v>
+      </c>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="40">
+        <v>2</v>
+      </c>
+      <c r="B15" s="42">
         <v>3</v>
       </c>
       <c r="C15" s="42">
@@ -9092,11 +9249,11 @@
         <v>5</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="40">
+      <c r="G15" s="42">
         <v>6</v>
       </c>
       <c r="H15" s="42"/>
-      <c r="I15" s="40">
+      <c r="I15" s="42">
         <v>7</v>
       </c>
       <c r="J15" s="42">
@@ -9107,7 +9264,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="42"/>
-      <c r="N15" s="40">
+      <c r="N15" s="42">
         <v>3</v>
       </c>
       <c r="O15" s="42">
@@ -9118,11 +9275,11 @@
         <v>5</v>
       </c>
       <c r="R15" s="42"/>
-      <c r="S15" s="40">
+      <c r="S15" s="42">
         <v>6</v>
       </c>
       <c r="T15" s="42"/>
-      <c r="U15" s="40">
+      <c r="U15" s="42">
         <v>7</v>
       </c>
       <c r="V15" s="42">
@@ -9133,11 +9290,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="42">
         <v>7</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="42">
         <v>1</v>
       </c>
       <c r="D16" s="42"/>
@@ -9148,11 +9305,11 @@
       <c r="G16" s="42">
         <v>3</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="42">
         <v>4</v>
       </c>
       <c r="I16" s="42"/>
-      <c r="J16" s="40">
+      <c r="J16" s="42">
         <v>5</v>
       </c>
       <c r="K16" s="42"/>
@@ -9163,7 +9320,7 @@
       <c r="N16" s="42">
         <v>7</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="42">
         <v>1</v>
       </c>
       <c r="P16" s="42"/>
@@ -9174,11 +9331,11 @@
       <c r="S16" s="42">
         <v>3</v>
       </c>
-      <c r="T16" s="40">
+      <c r="T16" s="42">
         <v>4</v>
       </c>
       <c r="U16" s="42"/>
-      <c r="V16" s="40">
+      <c r="V16" s="42">
         <v>5</v>
       </c>
       <c r="W16" s="42"/>
@@ -9187,52 +9344,52 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B17" s="40">
+      <c r="B17" s="42">
         <v>5</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="42">
+      <c r="D17" s="40">
         <v>6</v>
       </c>
       <c r="E17" s="42"/>
-      <c r="F17" s="42">
-        <v>7</v>
-      </c>
-      <c r="G17" s="40">
+      <c r="F17" s="40">
+        <v>7</v>
+      </c>
+      <c r="G17" s="42">
         <v>1</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="I17" s="40">
+      <c r="I17" s="42">
         <v>2</v>
       </c>
       <c r="J17" s="42"/>
-      <c r="K17" s="42">
+      <c r="K17" s="40">
         <v>3</v>
       </c>
       <c r="L17" s="42">
         <v>4</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="40">
+      <c r="N17" s="42">
         <v>5</v>
       </c>
       <c r="O17" s="42"/>
-      <c r="P17" s="42">
+      <c r="P17" s="40">
         <v>6</v>
       </c>
       <c r="Q17" s="42"/>
-      <c r="R17" s="42">
-        <v>7</v>
-      </c>
-      <c r="S17" s="40">
+      <c r="R17" s="40">
+        <v>7</v>
+      </c>
+      <c r="S17" s="42">
         <v>1</v>
       </c>
       <c r="T17" s="42"/>
-      <c r="U17" s="40">
+      <c r="U17" s="42">
         <v>2</v>
       </c>
       <c r="V17" s="42"/>
-      <c r="W17" s="42">
+      <c r="W17" s="40">
         <v>3</v>
       </c>
       <c r="X17" s="42">
@@ -9247,11 +9404,11 @@
       <c r="D18" s="42">
         <v>3</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="40">
         <v>4</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="42">
+      <c r="G18" s="40">
         <v>5</v>
       </c>
       <c r="H18" s="42"/>
@@ -9262,7 +9419,7 @@
       <c r="K18" s="42">
         <v>7</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="40">
         <v>1</v>
       </c>
       <c r="M18" s="42"/>
@@ -9273,11 +9430,11 @@
       <c r="P18" s="42">
         <v>3</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="40">
         <v>4</v>
       </c>
       <c r="R18" s="42"/>
-      <c r="S18" s="42">
+      <c r="S18" s="40">
         <v>5</v>
       </c>
       <c r="T18" s="42"/>
@@ -9288,7 +9445,7 @@
       <c r="W18" s="42">
         <v>7</v>
       </c>
-      <c r="X18" s="42">
+      <c r="X18" s="40">
         <v>1</v>
       </c>
     </row>
@@ -9300,11 +9457,11 @@
       <c r="D19" s="42">
         <v>7</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="40">
         <v>1</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="42">
+      <c r="G19" s="40">
         <v>2</v>
       </c>
       <c r="H19" s="42"/>
@@ -9315,7 +9472,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="42"/>
-      <c r="L19" s="42">
+      <c r="L19" s="40">
         <v>5</v>
       </c>
       <c r="M19" s="42"/>
@@ -9326,11 +9483,11 @@
       <c r="P19" s="42">
         <v>7</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="40">
         <v>1</v>
       </c>
       <c r="R19" s="42"/>
-      <c r="S19" s="42">
+      <c r="S19" s="40">
         <v>2</v>
       </c>
       <c r="T19" s="42"/>
@@ -9341,7 +9498,7 @@
         <v>4</v>
       </c>
       <c r="W19" s="42"/>
-      <c r="X19" s="42">
+      <c r="X19" s="40">
         <v>5</v>
       </c>
     </row>
@@ -9423,375 +9580,351 @@
       <c r="W21" s="43"/>
       <c r="X21" s="43"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="42">
-        <v>3</v>
-      </c>
-      <c r="C22" s="42">
-        <v>4</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42">
-        <v>5</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42">
-        <v>6</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42">
-        <v>7</v>
-      </c>
-      <c r="J22" s="42">
-        <v>1</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42">
-        <v>2</v>
-      </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42">
-        <v>3</v>
-      </c>
-      <c r="O22" s="42">
-        <v>4</v>
-      </c>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42">
-        <v>5</v>
-      </c>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42">
-        <v>6</v>
-      </c>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42">
-        <v>7</v>
-      </c>
-      <c r="V22" s="42">
-        <v>1</v>
-      </c>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B23" s="40">
-        <v>7</v>
-      </c>
-      <c r="C23" s="42">
-        <v>1</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42">
-        <v>2</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="40">
-        <v>3</v>
-      </c>
-      <c r="H23" s="42">
-        <v>4</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42">
-        <v>5</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="40">
-        <v>6</v>
-      </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="40">
-        <v>7</v>
-      </c>
-      <c r="O23" s="42">
-        <v>1</v>
-      </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42">
-        <v>2</v>
-      </c>
-      <c r="R23" s="42"/>
-      <c r="S23" s="40">
-        <v>3</v>
-      </c>
-      <c r="T23" s="42">
-        <v>4</v>
-      </c>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42">
-        <v>5</v>
-      </c>
-      <c r="W23" s="42"/>
-      <c r="X23" s="40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B24" s="40">
-        <v>5</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42">
-        <v>6</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42">
-        <v>7</v>
-      </c>
-      <c r="G24" s="40">
-        <v>1</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42">
-        <v>2</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42">
-        <v>3</v>
-      </c>
-      <c r="L24" s="40">
-        <v>4</v>
-      </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="40">
-        <v>5</v>
-      </c>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42">
-        <v>7</v>
-      </c>
-      <c r="S24" s="40">
-        <v>1</v>
-      </c>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42">
-        <v>2</v>
-      </c>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42">
-        <v>3</v>
-      </c>
-      <c r="X24" s="40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B25" s="40">
-        <v>2</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42">
-        <v>3</v>
-      </c>
-      <c r="E25" s="42">
-        <v>4</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="40">
-        <v>5</v>
-      </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42">
-        <v>6</v>
-      </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42">
-        <v>7</v>
-      </c>
-      <c r="L25" s="40">
-        <v>1</v>
-      </c>
-      <c r="M25" s="42"/>
-      <c r="N25" s="40">
-        <v>2</v>
-      </c>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="42">
-        <v>4</v>
-      </c>
-      <c r="R25" s="42"/>
-      <c r="S25" s="40">
-        <v>5</v>
-      </c>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42">
-        <v>6</v>
-      </c>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42">
-        <v>7</v>
-      </c>
-      <c r="X25" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="42">
-        <v>6</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42">
-        <v>7</v>
-      </c>
-      <c r="E26" s="42">
-        <v>1</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42">
-        <v>2</v>
-      </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42">
-        <v>3</v>
-      </c>
-      <c r="J26" s="42">
-        <v>4</v>
-      </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42">
-        <v>5</v>
-      </c>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42">
-        <v>6</v>
-      </c>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42">
-        <v>7</v>
-      </c>
-      <c r="Q26" s="42">
-        <v>1</v>
-      </c>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42">
-        <v>2</v>
-      </c>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42">
-        <v>3</v>
-      </c>
-      <c r="V26" s="42">
-        <v>4</v>
-      </c>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="42">
-        <v>3</v>
-      </c>
-      <c r="C27" s="42">
-        <v>4</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42">
-        <v>5</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42">
-        <v>6</v>
-      </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42">
-        <v>7</v>
-      </c>
-      <c r="J27" s="42">
-        <v>1</v>
-      </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42">
-        <v>2</v>
-      </c>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42">
-        <v>3</v>
-      </c>
-      <c r="O27" s="42">
-        <v>4</v>
-      </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42">
-        <v>5</v>
-      </c>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42">
-        <v>6</v>
-      </c>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42">
-        <v>7</v>
-      </c>
-      <c r="V27" s="42">
-        <v>1</v>
-      </c>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-    </row>
+    <row r="22" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="46">
+        <v>3</v>
+      </c>
+      <c r="C22" s="47">
+        <v>4</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47">
+        <v>5</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46">
+        <v>6</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46">
+        <v>7</v>
+      </c>
+      <c r="J22" s="47">
+        <v>1</v>
+      </c>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46">
+        <v>2</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46">
+        <v>3</v>
+      </c>
+      <c r="O22" s="47">
+        <v>4</v>
+      </c>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="47">
+        <v>5</v>
+      </c>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46">
+        <v>6</v>
+      </c>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46">
+        <v>7</v>
+      </c>
+      <c r="V22" s="47">
+        <v>1</v>
+      </c>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="46">
+        <v>7</v>
+      </c>
+      <c r="C23" s="46">
+        <v>1</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47">
+        <v>2</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47">
+        <v>3</v>
+      </c>
+      <c r="H23" s="46">
+        <v>4</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46">
+        <v>5</v>
+      </c>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47">
+        <v>6</v>
+      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46">
+        <v>7</v>
+      </c>
+      <c r="O23" s="46">
+        <v>1</v>
+      </c>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="47">
+        <v>2</v>
+      </c>
+      <c r="R23" s="46"/>
+      <c r="S23" s="47">
+        <v>3</v>
+      </c>
+      <c r="T23" s="46">
+        <v>4</v>
+      </c>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46">
+        <v>5</v>
+      </c>
+      <c r="W23" s="46"/>
+      <c r="X23" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46">
+        <v>5</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47">
+        <v>6</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47">
+        <v>7</v>
+      </c>
+      <c r="G24" s="46">
+        <v>1</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46">
+        <v>2</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47">
+        <v>3</v>
+      </c>
+      <c r="L24" s="46">
+        <v>4</v>
+      </c>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46">
+        <v>5</v>
+      </c>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="47">
+        <v>7</v>
+      </c>
+      <c r="S24" s="46">
+        <v>1</v>
+      </c>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46">
+        <v>2</v>
+      </c>
+      <c r="V24" s="46"/>
+      <c r="W24" s="47">
+        <v>3</v>
+      </c>
+      <c r="X24" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="46">
+        <v>2</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46">
+        <v>3</v>
+      </c>
+      <c r="E25" s="46">
+        <v>4</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46">
+        <v>5</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46">
+        <v>6</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46">
+        <v>7</v>
+      </c>
+      <c r="L25" s="46">
+        <v>1</v>
+      </c>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46">
+        <v>2</v>
+      </c>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="46">
+        <v>4</v>
+      </c>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46">
+        <v>5</v>
+      </c>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46">
+        <v>6</v>
+      </c>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46">
+        <v>7</v>
+      </c>
+      <c r="X25" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="46">
+        <v>6</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46">
+        <v>7</v>
+      </c>
+      <c r="E26" s="46">
+        <v>1</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46">
+        <v>2</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46">
+        <v>3</v>
+      </c>
+      <c r="J26" s="46">
+        <v>4</v>
+      </c>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46">
+        <v>5</v>
+      </c>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46">
+        <v>6</v>
+      </c>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="46">
+        <v>1</v>
+      </c>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46">
+        <v>2</v>
+      </c>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46">
+        <v>3</v>
+      </c>
+      <c r="V26" s="46">
+        <v>4</v>
+      </c>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="46">
+        <v>3</v>
+      </c>
+      <c r="C27" s="46">
+        <v>4</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46">
+        <v>5</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46">
+        <v>6</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46">
+        <v>7</v>
+      </c>
+      <c r="J27" s="46">
+        <v>1</v>
+      </c>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46">
+        <v>2</v>
+      </c>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46">
+        <v>3</v>
+      </c>
+      <c r="O27" s="46">
+        <v>4</v>
+      </c>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46">
+        <v>5</v>
+      </c>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46">
+        <v>6</v>
+      </c>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46">
+        <v>7</v>
+      </c>
+      <c r="V27" s="46">
+        <v>1</v>
+      </c>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="42">
-        <v>3</v>
-      </c>
-      <c r="C29" s="40">
+        <v>33</v>
+      </c>
+      <c r="B29" s="40">
+        <v>3</v>
+      </c>
+      <c r="C29" s="42">
         <v>4</v>
       </c>
       <c r="D29" s="42"/>
-      <c r="E29" s="40">
+      <c r="E29" s="42">
         <v>5</v>
       </c>
       <c r="F29" s="42"/>
-      <c r="G29" s="42">
+      <c r="G29" s="40">
         <v>6</v>
       </c>
       <c r="H29" s="42"/>
-      <c r="I29" s="42">
-        <v>7</v>
-      </c>
-      <c r="J29" s="40">
+      <c r="I29" s="40">
+        <v>7</v>
+      </c>
+      <c r="J29" s="42">
         <v>1</v>
       </c>
       <c r="K29" s="42"/>
@@ -9799,25 +9932,25 @@
         <v>2</v>
       </c>
       <c r="M29" s="42"/>
-      <c r="N29" s="42">
-        <v>3</v>
-      </c>
-      <c r="O29" s="40">
+      <c r="N29" s="40">
+        <v>3</v>
+      </c>
+      <c r="O29" s="42">
         <v>4</v>
       </c>
       <c r="P29" s="42"/>
-      <c r="Q29" s="40">
+      <c r="Q29" s="42">
         <v>5</v>
       </c>
       <c r="R29" s="42"/>
-      <c r="S29" s="42">
+      <c r="S29" s="40">
         <v>6</v>
       </c>
       <c r="T29" s="42"/>
-      <c r="U29" s="42">
-        <v>7</v>
-      </c>
-      <c r="V29" s="40">
+      <c r="U29" s="40">
+        <v>7</v>
+      </c>
+      <c r="V29" s="42">
         <v>1</v>
       </c>
       <c r="W29" s="42"/>
@@ -9829,7 +9962,7 @@
       <c r="B30" s="42">
         <v>7</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="40">
         <v>1</v>
       </c>
       <c r="D30" s="42"/>
@@ -9840,11 +9973,11 @@
       <c r="G30" s="42">
         <v>3</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="40">
         <v>4</v>
       </c>
       <c r="I30" s="42"/>
-      <c r="J30" s="42">
+      <c r="J30" s="40">
         <v>5</v>
       </c>
       <c r="K30" s="42"/>
@@ -9855,7 +9988,7 @@
       <c r="N30" s="42">
         <v>7</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="40">
         <v>1</v>
       </c>
       <c r="P30" s="42"/>
@@ -9866,11 +9999,11 @@
       <c r="S30" s="42">
         <v>3</v>
       </c>
-      <c r="T30" s="42">
+      <c r="T30" s="40">
         <v>4</v>
       </c>
       <c r="U30" s="42"/>
-      <c r="V30" s="42">
+      <c r="V30" s="40">
         <v>5</v>
       </c>
       <c r="W30" s="42"/>
@@ -9879,7 +10012,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B31" s="42">
+      <c r="B31" s="40">
         <v>5</v>
       </c>
       <c r="C31" s="42"/>
@@ -9890,11 +10023,11 @@
       <c r="F31" s="42">
         <v>7</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="40">
         <v>1</v>
       </c>
       <c r="H31" s="42"/>
-      <c r="I31" s="42">
+      <c r="I31" s="40">
         <v>2</v>
       </c>
       <c r="J31" s="42"/>
@@ -9905,7 +10038,7 @@
         <v>4</v>
       </c>
       <c r="M31" s="42"/>
-      <c r="N31" s="42">
+      <c r="N31" s="40">
         <v>5</v>
       </c>
       <c r="O31" s="42"/>
@@ -9916,11 +10049,11 @@
       <c r="R31" s="42">
         <v>7</v>
       </c>
-      <c r="S31" s="42">
+      <c r="S31" s="40">
         <v>1</v>
       </c>
       <c r="T31" s="42"/>
-      <c r="U31" s="42">
+      <c r="U31" s="40">
         <v>2</v>
       </c>
       <c r="V31" s="42"/>
@@ -9984,12 +10117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B33" s="40">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="42">
         <v>6</v>
       </c>
       <c r="C33" s="42"/>
-      <c r="D33" s="40">
+      <c r="D33" s="42">
         <v>7</v>
       </c>
       <c r="E33" s="42">
@@ -10000,7 +10133,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="42"/>
-      <c r="I33" s="40">
+      <c r="I33" s="42">
         <v>3</v>
       </c>
       <c r="J33" s="42">
@@ -10011,11 +10144,11 @@
         <v>5</v>
       </c>
       <c r="M33" s="42"/>
-      <c r="N33" s="40">
+      <c r="N33" s="42">
         <v>6</v>
       </c>
       <c r="O33" s="42"/>
-      <c r="P33" s="40">
+      <c r="P33" s="42">
         <v>7</v>
       </c>
       <c r="Q33" s="42">
@@ -10026,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="T33" s="42"/>
-      <c r="U33" s="40">
+      <c r="U33" s="42">
         <v>3</v>
       </c>
       <c r="V33" s="42">
@@ -10037,15 +10170,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B34" s="42">
         <v>3</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="42">
         <v>4</v>
       </c>
       <c r="D34" s="42"/>
-      <c r="E34" s="40">
+      <c r="E34" s="42">
         <v>5</v>
       </c>
       <c r="F34" s="42"/>
@@ -10056,7 +10189,7 @@
       <c r="I34" s="42">
         <v>7</v>
       </c>
-      <c r="J34" s="40">
+      <c r="J34" s="42">
         <v>1</v>
       </c>
       <c r="K34" s="42"/>
@@ -10067,11 +10200,11 @@
       <c r="N34" s="42">
         <v>3</v>
       </c>
-      <c r="O34" s="40">
+      <c r="O34" s="42">
         <v>4</v>
       </c>
       <c r="P34" s="42"/>
-      <c r="Q34" s="40">
+      <c r="Q34" s="42">
         <v>5</v>
       </c>
       <c r="R34" s="42"/>
@@ -10082,13 +10215,1946 @@
       <c r="U34" s="42">
         <v>7</v>
       </c>
-      <c r="V34" s="40">
+      <c r="V34" s="42">
         <v>1</v>
       </c>
       <c r="W34" s="42"/>
       <c r="X34" s="42">
         <v>2</v>
       </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+    </row>
+    <row r="36" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="46">
+        <v>3</v>
+      </c>
+      <c r="C36" s="46">
+        <v>4</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46">
+        <v>5</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46">
+        <v>6</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46">
+        <v>7</v>
+      </c>
+      <c r="J36" s="46">
+        <v>1</v>
+      </c>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46">
+        <v>2</v>
+      </c>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46">
+        <v>3</v>
+      </c>
+      <c r="O36" s="46">
+        <v>4</v>
+      </c>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46">
+        <v>5</v>
+      </c>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46">
+        <v>6</v>
+      </c>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46">
+        <v>7</v>
+      </c>
+      <c r="V36" s="46">
+        <v>1</v>
+      </c>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="46">
+        <v>7</v>
+      </c>
+      <c r="C37" s="47">
+        <v>1</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46">
+        <v>2</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46">
+        <v>3</v>
+      </c>
+      <c r="H37" s="47">
+        <v>4</v>
+      </c>
+      <c r="I37" s="46"/>
+      <c r="J37" s="47">
+        <v>5</v>
+      </c>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46">
+        <v>6</v>
+      </c>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46">
+        <v>7</v>
+      </c>
+      <c r="O37" s="47">
+        <v>1</v>
+      </c>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46">
+        <v>2</v>
+      </c>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46">
+        <v>3</v>
+      </c>
+      <c r="T37" s="47">
+        <v>4</v>
+      </c>
+      <c r="U37" s="46"/>
+      <c r="V37" s="47">
+        <v>5</v>
+      </c>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="46">
+        <v>5</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47">
+        <v>6</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46">
+        <v>7</v>
+      </c>
+      <c r="G38" s="46">
+        <v>1</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="47">
+        <v>2</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47">
+        <v>3</v>
+      </c>
+      <c r="L38" s="46">
+        <v>4</v>
+      </c>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46">
+        <v>5</v>
+      </c>
+      <c r="O38" s="46"/>
+      <c r="P38" s="47">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46">
+        <v>7</v>
+      </c>
+      <c r="S38" s="46">
+        <v>1</v>
+      </c>
+      <c r="T38" s="46"/>
+      <c r="U38" s="47">
+        <v>2</v>
+      </c>
+      <c r="V38" s="46"/>
+      <c r="W38" s="47">
+        <v>3</v>
+      </c>
+      <c r="X38" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="46">
+        <v>2</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47">
+        <v>3</v>
+      </c>
+      <c r="E39" s="46">
+        <v>4</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46">
+        <v>5</v>
+      </c>
+      <c r="H39" s="46"/>
+      <c r="I39" s="47">
+        <v>6</v>
+      </c>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47">
+        <v>7</v>
+      </c>
+      <c r="L39" s="46">
+        <v>1</v>
+      </c>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46">
+        <v>2</v>
+      </c>
+      <c r="O39" s="46"/>
+      <c r="P39" s="47">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="46">
+        <v>4</v>
+      </c>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46">
+        <v>5</v>
+      </c>
+      <c r="T39" s="46"/>
+      <c r="U39" s="47">
+        <v>6</v>
+      </c>
+      <c r="V39" s="46"/>
+      <c r="W39" s="47">
+        <v>7</v>
+      </c>
+      <c r="X39" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="46">
+        <v>6</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46">
+        <v>7</v>
+      </c>
+      <c r="E40" s="46">
+        <v>1</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46">
+        <v>2</v>
+      </c>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46">
+        <v>3</v>
+      </c>
+      <c r="J40" s="46">
+        <v>4</v>
+      </c>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46">
+        <v>5</v>
+      </c>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46">
+        <v>6</v>
+      </c>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="46">
+        <v>1</v>
+      </c>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46">
+        <v>2</v>
+      </c>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46">
+        <v>3</v>
+      </c>
+      <c r="V40" s="46">
+        <v>4</v>
+      </c>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="46">
+        <v>3</v>
+      </c>
+      <c r="C41" s="46">
+        <v>4</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46">
+        <v>5</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46">
+        <v>6</v>
+      </c>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46">
+        <v>7</v>
+      </c>
+      <c r="J41" s="46">
+        <v>1</v>
+      </c>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46">
+        <v>2</v>
+      </c>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46">
+        <v>3</v>
+      </c>
+      <c r="O41" s="46">
+        <v>4</v>
+      </c>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46">
+        <v>5</v>
+      </c>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46">
+        <v>6</v>
+      </c>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46">
+        <v>7</v>
+      </c>
+      <c r="V41" s="46">
+        <v>1</v>
+      </c>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="42">
+        <v>3</v>
+      </c>
+      <c r="C43" s="42">
+        <v>4</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42">
+        <v>5</v>
+      </c>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42">
+        <v>6</v>
+      </c>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42">
+        <v>7</v>
+      </c>
+      <c r="J43" s="42">
+        <v>1</v>
+      </c>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42">
+        <v>2</v>
+      </c>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42">
+        <v>3</v>
+      </c>
+      <c r="O43" s="42">
+        <v>4</v>
+      </c>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42">
+        <v>5</v>
+      </c>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42">
+        <v>6</v>
+      </c>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42">
+        <v>7</v>
+      </c>
+      <c r="V43" s="42">
+        <v>1</v>
+      </c>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="40">
+        <v>7</v>
+      </c>
+      <c r="C44" s="42">
+        <v>1</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42">
+        <v>2</v>
+      </c>
+      <c r="F44" s="42"/>
+      <c r="G44" s="40">
+        <v>3</v>
+      </c>
+      <c r="H44" s="42">
+        <v>4</v>
+      </c>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42">
+        <v>5</v>
+      </c>
+      <c r="K44" s="42"/>
+      <c r="L44" s="40">
+        <v>6</v>
+      </c>
+      <c r="M44" s="42"/>
+      <c r="N44" s="40">
+        <v>7</v>
+      </c>
+      <c r="O44" s="42">
+        <v>1</v>
+      </c>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42">
+        <v>2</v>
+      </c>
+      <c r="R44" s="42"/>
+      <c r="S44" s="40">
+        <v>3</v>
+      </c>
+      <c r="T44" s="42">
+        <v>4</v>
+      </c>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42">
+        <v>5</v>
+      </c>
+      <c r="W44" s="42"/>
+      <c r="X44" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="40">
+        <v>5</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42">
+        <v>6</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42">
+        <v>7</v>
+      </c>
+      <c r="G45" s="40">
+        <v>1</v>
+      </c>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42">
+        <v>2</v>
+      </c>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42">
+        <v>3</v>
+      </c>
+      <c r="L45" s="40">
+        <v>4</v>
+      </c>
+      <c r="M45" s="42"/>
+      <c r="N45" s="40">
+        <v>5</v>
+      </c>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42">
+        <v>7</v>
+      </c>
+      <c r="S45" s="40">
+        <v>1</v>
+      </c>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42">
+        <v>2</v>
+      </c>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42">
+        <v>3</v>
+      </c>
+      <c r="X45" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="40">
+        <v>2</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42">
+        <v>3</v>
+      </c>
+      <c r="E46" s="42">
+        <v>4</v>
+      </c>
+      <c r="F46" s="42"/>
+      <c r="G46" s="40">
+        <v>5</v>
+      </c>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42">
+        <v>6</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42">
+        <v>7</v>
+      </c>
+      <c r="L46" s="40">
+        <v>1</v>
+      </c>
+      <c r="M46" s="42"/>
+      <c r="N46" s="40">
+        <v>2</v>
+      </c>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="42">
+        <v>4</v>
+      </c>
+      <c r="R46" s="42"/>
+      <c r="S46" s="40">
+        <v>5</v>
+      </c>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42">
+        <v>6</v>
+      </c>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42">
+        <v>7</v>
+      </c>
+      <c r="X46" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B47" s="42">
+        <v>6</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42">
+        <v>7</v>
+      </c>
+      <c r="E47" s="42">
+        <v>1</v>
+      </c>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42">
+        <v>2</v>
+      </c>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42">
+        <v>3</v>
+      </c>
+      <c r="J47" s="42">
+        <v>4</v>
+      </c>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42">
+        <v>5</v>
+      </c>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42">
+        <v>6</v>
+      </c>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="42">
+        <v>1</v>
+      </c>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42">
+        <v>2</v>
+      </c>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42">
+        <v>3</v>
+      </c>
+      <c r="V47" s="42">
+        <v>4</v>
+      </c>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B48" s="42">
+        <v>3</v>
+      </c>
+      <c r="C48" s="42">
+        <v>4</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42">
+        <v>5</v>
+      </c>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42">
+        <v>6</v>
+      </c>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42">
+        <v>7</v>
+      </c>
+      <c r="J48" s="42">
+        <v>1</v>
+      </c>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42">
+        <v>2</v>
+      </c>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42">
+        <v>3</v>
+      </c>
+      <c r="O48" s="42">
+        <v>4</v>
+      </c>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42">
+        <v>5</v>
+      </c>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42">
+        <v>6</v>
+      </c>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42">
+        <v>7</v>
+      </c>
+      <c r="V48" s="42">
+        <v>1</v>
+      </c>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="42">
+        <v>3</v>
+      </c>
+      <c r="C50" s="40">
+        <v>4</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="40">
+        <v>5</v>
+      </c>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42">
+        <v>6</v>
+      </c>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42">
+        <v>7</v>
+      </c>
+      <c r="J50" s="40">
+        <v>1</v>
+      </c>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42">
+        <v>2</v>
+      </c>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42">
+        <v>3</v>
+      </c>
+      <c r="O50" s="40">
+        <v>4</v>
+      </c>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="40">
+        <v>5</v>
+      </c>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42">
+        <v>6</v>
+      </c>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42">
+        <v>7</v>
+      </c>
+      <c r="V50" s="40">
+        <v>1</v>
+      </c>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B51" s="42">
+        <v>7</v>
+      </c>
+      <c r="C51" s="42">
+        <v>1</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42">
+        <v>2</v>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42">
+        <v>3</v>
+      </c>
+      <c r="H51" s="42">
+        <v>4</v>
+      </c>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42">
+        <v>5</v>
+      </c>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42">
+        <v>6</v>
+      </c>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42">
+        <v>7</v>
+      </c>
+      <c r="O51" s="42">
+        <v>1</v>
+      </c>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42">
+        <v>2</v>
+      </c>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42">
+        <v>3</v>
+      </c>
+      <c r="T51" s="42">
+        <v>4</v>
+      </c>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42">
+        <v>5</v>
+      </c>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B52" s="42">
+        <v>5</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42">
+        <v>6</v>
+      </c>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42">
+        <v>7</v>
+      </c>
+      <c r="G52" s="42">
+        <v>1</v>
+      </c>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42">
+        <v>2</v>
+      </c>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42">
+        <v>3</v>
+      </c>
+      <c r="L52" s="42">
+        <v>4</v>
+      </c>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42">
+        <v>5</v>
+      </c>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42">
+        <v>7</v>
+      </c>
+      <c r="S52" s="42">
+        <v>1</v>
+      </c>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42">
+        <v>2</v>
+      </c>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42">
+        <v>3</v>
+      </c>
+      <c r="X52" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B53" s="42">
+        <v>2</v>
+      </c>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42">
+        <v>3</v>
+      </c>
+      <c r="E53" s="42">
+        <v>4</v>
+      </c>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42">
+        <v>5</v>
+      </c>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42">
+        <v>6</v>
+      </c>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42">
+        <v>7</v>
+      </c>
+      <c r="L53" s="42">
+        <v>1</v>
+      </c>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42">
+        <v>2</v>
+      </c>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="42">
+        <v>4</v>
+      </c>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42">
+        <v>5</v>
+      </c>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42">
+        <v>6</v>
+      </c>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42">
+        <v>7</v>
+      </c>
+      <c r="X53" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B54" s="40">
+        <v>6</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="40">
+        <v>7</v>
+      </c>
+      <c r="E54" s="42">
+        <v>1</v>
+      </c>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42">
+        <v>2</v>
+      </c>
+      <c r="H54" s="42"/>
+      <c r="I54" s="40">
+        <v>3</v>
+      </c>
+      <c r="J54" s="42">
+        <v>4</v>
+      </c>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42">
+        <v>5</v>
+      </c>
+      <c r="M54" s="42"/>
+      <c r="N54" s="40">
+        <v>6</v>
+      </c>
+      <c r="O54" s="42"/>
+      <c r="P54" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q54" s="42">
+        <v>1</v>
+      </c>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42">
+        <v>2</v>
+      </c>
+      <c r="T54" s="42"/>
+      <c r="U54" s="40">
+        <v>3</v>
+      </c>
+      <c r="V54" s="42">
+        <v>4</v>
+      </c>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B55" s="42">
+        <v>3</v>
+      </c>
+      <c r="C55" s="40">
+        <v>4</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="40">
+        <v>5</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42">
+        <v>6</v>
+      </c>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42">
+        <v>7</v>
+      </c>
+      <c r="J55" s="40">
+        <v>1</v>
+      </c>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42">
+        <v>2</v>
+      </c>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42">
+        <v>3</v>
+      </c>
+      <c r="O55" s="40">
+        <v>4</v>
+      </c>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="40">
+        <v>5</v>
+      </c>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42">
+        <v>6</v>
+      </c>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42">
+        <v>7</v>
+      </c>
+      <c r="V55" s="40">
+        <v>1</v>
+      </c>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B62" s="42">
+        <v>3</v>
+      </c>
+      <c r="C62" s="52">
+        <v>4</v>
+      </c>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42">
+        <v>5</v>
+      </c>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42">
+        <v>6</v>
+      </c>
+      <c r="H62" s="42"/>
+      <c r="I62" s="52">
+        <v>7</v>
+      </c>
+      <c r="J62" s="42">
+        <v>1</v>
+      </c>
+      <c r="K62" s="42"/>
+      <c r="L62" s="52">
+        <v>2</v>
+      </c>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42">
+        <v>3</v>
+      </c>
+      <c r="O62" s="52">
+        <v>4</v>
+      </c>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42">
+        <v>5</v>
+      </c>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42">
+        <v>6</v>
+      </c>
+      <c r="T62" s="42"/>
+      <c r="U62" s="52">
+        <v>7</v>
+      </c>
+      <c r="V62" s="42">
+        <v>1</v>
+      </c>
+      <c r="W62" s="42"/>
+      <c r="X62" s="52">
+        <v>2</v>
+      </c>
+      <c r="Y62" s="43"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B63" s="52">
+        <v>7</v>
+      </c>
+      <c r="C63" s="42">
+        <v>1</v>
+      </c>
+      <c r="D63" s="42"/>
+      <c r="E63" s="52">
+        <v>2</v>
+      </c>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42">
+        <v>3</v>
+      </c>
+      <c r="H63" s="52">
+        <v>4</v>
+      </c>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42">
+        <v>5</v>
+      </c>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42">
+        <v>6</v>
+      </c>
+      <c r="M63" s="42"/>
+      <c r="N63" s="52">
+        <v>7</v>
+      </c>
+      <c r="O63" s="42">
+        <v>1</v>
+      </c>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="52">
+        <v>2</v>
+      </c>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42">
+        <v>3</v>
+      </c>
+      <c r="T63" s="52">
+        <v>4</v>
+      </c>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42">
+        <v>5</v>
+      </c>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42">
+        <v>6</v>
+      </c>
+      <c r="Y63" s="43"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B64" s="42">
+        <v>5</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42">
+        <v>6</v>
+      </c>
+      <c r="E64" s="42"/>
+      <c r="F64" s="52">
+        <v>7</v>
+      </c>
+      <c r="G64" s="42">
+        <v>1</v>
+      </c>
+      <c r="H64" s="42"/>
+      <c r="I64" s="52">
+        <v>2</v>
+      </c>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42">
+        <v>3</v>
+      </c>
+      <c r="L64" s="52">
+        <v>4</v>
+      </c>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42">
+        <v>5</v>
+      </c>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="52">
+        <v>7</v>
+      </c>
+      <c r="S64" s="42">
+        <v>1</v>
+      </c>
+      <c r="T64" s="42"/>
+      <c r="U64" s="52">
+        <v>2</v>
+      </c>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42">
+        <v>3</v>
+      </c>
+      <c r="X64" s="52">
+        <v>4</v>
+      </c>
+      <c r="Y64" s="43"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B65" s="52">
+        <v>2</v>
+      </c>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42">
+        <v>3</v>
+      </c>
+      <c r="E65" s="52">
+        <v>4</v>
+      </c>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42">
+        <v>5</v>
+      </c>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42">
+        <v>6</v>
+      </c>
+      <c r="J65" s="42"/>
+      <c r="K65" s="52">
+        <v>7</v>
+      </c>
+      <c r="L65" s="42">
+        <v>1</v>
+      </c>
+      <c r="M65" s="42"/>
+      <c r="N65" s="52">
+        <v>2</v>
+      </c>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="52">
+        <v>4</v>
+      </c>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42">
+        <v>5</v>
+      </c>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42">
+        <v>6</v>
+      </c>
+      <c r="V65" s="42"/>
+      <c r="W65" s="52">
+        <v>7</v>
+      </c>
+      <c r="X65" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="43"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B66" s="42">
+        <v>6</v>
+      </c>
+      <c r="C66" s="42"/>
+      <c r="D66" s="52">
+        <v>7</v>
+      </c>
+      <c r="E66" s="42">
+        <v>1</v>
+      </c>
+      <c r="F66" s="42"/>
+      <c r="G66" s="52">
+        <v>2</v>
+      </c>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42">
+        <v>3</v>
+      </c>
+      <c r="J66" s="52">
+        <v>4</v>
+      </c>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42">
+        <v>5</v>
+      </c>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42">
+        <v>6</v>
+      </c>
+      <c r="O66" s="42"/>
+      <c r="P66" s="52">
+        <v>7</v>
+      </c>
+      <c r="Q66" s="42">
+        <v>1</v>
+      </c>
+      <c r="R66" s="42"/>
+      <c r="S66" s="52">
+        <v>2</v>
+      </c>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42">
+        <v>3</v>
+      </c>
+      <c r="V66" s="52">
+        <v>4</v>
+      </c>
+      <c r="W66" s="42"/>
+      <c r="X66" s="42">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="43"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B67" s="42">
+        <v>3</v>
+      </c>
+      <c r="C67" s="52">
+        <v>4</v>
+      </c>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42">
+        <v>5</v>
+      </c>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42">
+        <v>6</v>
+      </c>
+      <c r="H67" s="42"/>
+      <c r="I67" s="52">
+        <v>7</v>
+      </c>
+      <c r="J67" s="42">
+        <v>1</v>
+      </c>
+      <c r="K67" s="42"/>
+      <c r="L67" s="52">
+        <v>2</v>
+      </c>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42">
+        <v>3</v>
+      </c>
+      <c r="O67" s="52">
+        <v>4</v>
+      </c>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42">
+        <v>5</v>
+      </c>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42">
+        <v>6</v>
+      </c>
+      <c r="T67" s="42"/>
+      <c r="U67" s="52">
+        <v>7</v>
+      </c>
+      <c r="V67" s="42">
+        <v>1</v>
+      </c>
+      <c r="W67" s="42"/>
+      <c r="X67" s="52">
+        <v>2</v>
+      </c>
+      <c r="Y67" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AC28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="50" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3" style="50"/>
+    <col min="7" max="7" width="3" style="50" customWidth="1"/>
+    <col min="8" max="9" width="3" style="55"/>
+    <col min="10" max="10" width="3" style="59"/>
+    <col min="11" max="16" width="3" style="58"/>
+    <col min="17" max="21" width="3" style="55"/>
+    <col min="22" max="16384" width="3" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="44">
+        <v>6</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="44">
+        <v>7</v>
+      </c>
+      <c r="O2" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="51"/>
+      <c r="X2" s="51"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="44">
+        <v>3</v>
+      </c>
+      <c r="M3" s="42">
+        <v>4</v>
+      </c>
+      <c r="N3" s="42"/>
+      <c r="O3" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="51"/>
+      <c r="X3" s="51"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="44">
+        <v>7</v>
+      </c>
+      <c r="L4" s="42">
+        <v>1</v>
+      </c>
+      <c r="M4" s="42"/>
+      <c r="N4" s="44">
+        <v>2</v>
+      </c>
+      <c r="O4" s="42"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="51"/>
+      <c r="X4" s="51"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="44">
+        <v>5</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="44">
+        <v>6</v>
+      </c>
+      <c r="O5" s="42"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="51"/>
+      <c r="X5" s="51"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="44">
+        <v>2</v>
+      </c>
+      <c r="M6" s="42"/>
+      <c r="N6" s="44">
+        <v>3</v>
+      </c>
+      <c r="O6" s="42">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="51"/>
+      <c r="X6" s="51"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="I7" s="56"/>
+      <c r="L7" s="64">
+        <v>6</v>
+      </c>
+      <c r="N7" s="64">
+        <v>7</v>
+      </c>
+      <c r="O7" s="58">
+        <v>1</v>
+      </c>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="51"/>
+      <c r="X7" s="51"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C8" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="57"/>
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C9" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="53">
+        <v>6</v>
+      </c>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42">
+        <v>7</v>
+      </c>
+      <c r="O9" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="42">
+        <v>3</v>
+      </c>
+      <c r="M10" s="53">
+        <v>4</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="K11" s="58">
+        <v>7</v>
+      </c>
+      <c r="L11" s="53">
+        <v>1</v>
+      </c>
+      <c r="M11" s="42"/>
+      <c r="N11" s="53">
+        <v>2</v>
+      </c>
+      <c r="O11" s="42"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L12" s="53">
+        <v>5</v>
+      </c>
+      <c r="M12" s="42"/>
+      <c r="N12" s="53">
+        <v>6</v>
+      </c>
+      <c r="O12" s="42"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L13" s="53">
+        <v>2</v>
+      </c>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42">
+        <v>3</v>
+      </c>
+      <c r="O13" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L14" s="53">
+        <v>6</v>
+      </c>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42">
+        <v>7</v>
+      </c>
+      <c r="O14" s="53">
+        <v>1</v>
+      </c>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="54">
+        <v>6</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="62">
+        <v>7</v>
+      </c>
+      <c r="O16" s="54">
+        <v>1</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+    </row>
+    <row r="17" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="54">
+        <v>3</v>
+      </c>
+      <c r="M17" s="42">
+        <v>4</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="61">
+        <v>5</v>
+      </c>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+    </row>
+    <row r="18" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="54">
+        <v>1</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="61">
+        <v>2</v>
+      </c>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+    </row>
+    <row r="19" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="54">
+        <v>5</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="54">
+        <v>6</v>
+      </c>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+    </row>
+    <row r="20" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="54">
+        <v>2</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="54">
+        <v>3</v>
+      </c>
+      <c r="O20" s="42">
+        <v>4</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+    </row>
+    <row r="21" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="J21" s="42"/>
+      <c r="L21" s="54">
+        <v>6</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42">
+        <v>7</v>
+      </c>
+      <c r="O21" s="54">
+        <v>1</v>
+      </c>
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="K22" s="42"/>
+    </row>
+    <row r="23" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="K23" s="42"/>
+      <c r="L23" s="60">
+        <v>6</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="63">
+        <v>7</v>
+      </c>
+      <c r="O23" s="60">
+        <v>1</v>
+      </c>
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="K24" s="42"/>
+      <c r="L24" s="60">
+        <v>3</v>
+      </c>
+      <c r="M24" s="53">
+        <v>4</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="60">
+        <v>5</v>
+      </c>
+      <c r="P24" s="42"/>
+    </row>
+    <row r="25" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="K25" s="42"/>
+      <c r="L25" s="60">
+        <v>1</v>
+      </c>
+      <c r="M25" s="42"/>
+      <c r="N25" s="60">
+        <v>2</v>
+      </c>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+    </row>
+    <row r="26" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="K26" s="42"/>
+      <c r="L26" s="60">
+        <v>5</v>
+      </c>
+      <c r="M26" s="42"/>
+      <c r="N26" s="60">
+        <v>6</v>
+      </c>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+    </row>
+    <row r="27" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="K27" s="42"/>
+      <c r="L27" s="60">
+        <v>2</v>
+      </c>
+      <c r="M27" s="42"/>
+      <c r="N27" s="60">
+        <v>3</v>
+      </c>
+      <c r="O27" s="53">
+        <v>4</v>
+      </c>
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="L28" s="60">
+        <v>6</v>
+      </c>
+      <c r="M28" s="42"/>
+      <c r="N28" s="44">
+        <v>7</v>
+      </c>
+      <c r="O28" s="60">
+        <v>1</v>
+      </c>
+      <c r="P28" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
